--- a/indicators/NO_POPO_001/data/covariateDescription.xlsx
+++ b/indicators/NO_POPO_001/data/covariateDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ecRxiv\indicators\pollinatorIndicators\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ecRxiv\indicators\NO_POPO_001\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1192184D-4E74-48BF-8D88-EDACD5DF5ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEFCF3D-7296-4A9A-9190-E490F5767BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3E64C72-47B4-4B09-A119-CA23A2374FBF}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{E3E64C72-47B4-4B09-A119-CA23A2374FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>bio1</t>
   </si>
   <si>
-    <t>cellID</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t>mLat</t>
   </si>
   <si>
-    <t>sdLat</t>
-  </si>
-  <si>
-    <t>RegCom</t>
-  </si>
-  <si>
     <t>landCover</t>
   </si>
   <si>
@@ -92,15 +83,6 @@
     <t>soilMoisture</t>
   </si>
   <si>
-    <t>bio1sq</t>
-  </si>
-  <si>
-    <t>bmInt</t>
-  </si>
-  <si>
-    <t>bmIntsq</t>
-  </si>
-  <si>
     <t>Climatic</t>
   </si>
   <si>
@@ -119,18 +101,9 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>Polinator</t>
-  </si>
-  <si>
-    <t>Annual temperature</t>
-  </si>
-  <si>
     <t>geodata R-package</t>
   </si>
   <si>
-    <t>1 km grid cell created from the bio1 raster</t>
-  </si>
-  <si>
     <t>Latitudinal gradient extracted from the bio1 raster</t>
   </si>
   <si>
@@ -143,19 +116,70 @@
     <t>Mean pollinator latitude per each pollinator species</t>
   </si>
   <si>
-    <t>Standard deviation of pollinator latitude  per each pollinator species</t>
-  </si>
-  <si>
     <t>Land cover raster</t>
   </si>
   <si>
-    <t>Square of the annual temperature</t>
-  </si>
-  <si>
-    <t>Interraction between the annual temperature and mean pollinator annual temperature per each pollinator species</t>
-  </si>
-  <si>
-    <t>square of interraction between the annual temperature and mean pollinator annual temperature per each pollinator species</t>
+    <t>Land corine data</t>
+  </si>
+  <si>
+    <t>Ph of soil</t>
+  </si>
+  <si>
+    <t>Soil coarse fraction</t>
+  </si>
+  <si>
+    <t>Soil orgainic carbon</t>
+  </si>
+  <si>
+    <t>Soil moisture</t>
+  </si>
+  <si>
+    <t>polyBio1</t>
+  </si>
+  <si>
+    <t>polyBio2</t>
+  </si>
+  <si>
+    <t>Annual mean temperature</t>
+  </si>
+  <si>
+    <t>First column from orthogonal polynomial of annual mean temperature to degree of 2</t>
+  </si>
+  <si>
+    <t>Second column from orthogonal polynomial of annual mean temperature to degree of 2</t>
+  </si>
+  <si>
+    <t>poly1bmInt</t>
+  </si>
+  <si>
+    <t>poly2bmInt</t>
+  </si>
+  <si>
+    <t>Interraction between mBio1 and polyBio1</t>
+  </si>
+  <si>
+    <t>Interraction between mBio1 and polyBio2</t>
+  </si>
+  <si>
+    <t>sdmInt</t>
+  </si>
+  <si>
+    <t>Interraction between sdBio1 and mBio1</t>
+  </si>
+  <si>
+    <t>Poggio et al. (2021)</t>
+  </si>
+  <si>
+    <t>Extracted from bio1 raster</t>
+  </si>
+  <si>
+    <t>Calculated from bio1 raster</t>
+  </si>
+  <si>
+    <t>Calculated from bio1 raster and data downloaded from GBIF</t>
+  </si>
+  <si>
+    <t>Calculated from latitude raster and data downloaded from GBIF</t>
   </si>
 </sst>
 </file>
@@ -527,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC4416-74E4-442C-845E-E85757E60302}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
@@ -564,208 +588,236 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
